--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/135.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/135.xlsx
@@ -479,13 +479,13 @@
         <v>-17.28973735286768</v>
       </c>
       <c r="E2" t="n">
-        <v>-5.97971021057954</v>
+        <v>-5.911586788895947</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.729794139432148</v>
+        <v>-3.768148398303096</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.406911448735002</v>
+        <v>-7.571116168808424</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-17.01076144044274</v>
       </c>
       <c r="E3" t="n">
-        <v>-6.66319337057425</v>
+        <v>-6.568527530610176</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.740574399573696</v>
+        <v>-3.729139012511981</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.318351978347705</v>
+        <v>-7.451022604129525</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-16.69037184592893</v>
       </c>
       <c r="E4" t="n">
-        <v>-7.13592122254999</v>
+        <v>-7.094374442194947</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.835963812554073</v>
+        <v>-3.869497510654242</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.878038241899611</v>
+        <v>-7.05457792629826</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-16.37980265490921</v>
       </c>
       <c r="E5" t="n">
-        <v>-7.680365916256505</v>
+        <v>-7.644935283491973</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.577286459225603</v>
+        <v>-3.610776156263971</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.488247502414215</v>
+        <v>-6.634221115880912</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-16.07821723811334</v>
       </c>
       <c r="E6" t="n">
-        <v>-8.435468137844653</v>
+        <v>-8.458055349569799</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.572260560166415</v>
+        <v>-3.657593286021548</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.093953987604392</v>
+        <v>-6.190206401234564</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-15.80213820925427</v>
       </c>
       <c r="E7" t="n">
-        <v>-9.163167475943741</v>
+        <v>-9.226636563090031</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.495468929307781</v>
+        <v>-3.593928638600581</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.636328277840552</v>
+        <v>-5.762975647162333</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-15.55017264314503</v>
       </c>
       <c r="E8" t="n">
-        <v>-9.806257661203999</v>
+        <v>-9.848840911014829</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.383491116027961</v>
+        <v>-3.499018348293162</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.073706256602847</v>
+        <v>-5.199517605750386</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-15.30542187364933</v>
       </c>
       <c r="E9" t="n">
-        <v>-10.4540559600771</v>
+        <v>-10.5198424364783</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.263333994259793</v>
+        <v>-3.371043704544796</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.548206464505626</v>
+        <v>-4.682500240567263</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-15.05964564691824</v>
       </c>
       <c r="E10" t="n">
-        <v>-10.72275577748274</v>
+        <v>-10.83798966933593</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.094981042797576</v>
+        <v>-3.217836896356282</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.334239078975094</v>
+        <v>-4.531884606018214</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-14.77546141429871</v>
       </c>
       <c r="E11" t="n">
-        <v>-11.4609078122633</v>
+        <v>-11.56445208869769</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.153204225575667</v>
+        <v>-3.273586241659713</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.719759361900022</v>
+        <v>-3.930199419913858</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-14.43395744062052</v>
       </c>
       <c r="E12" t="n">
-        <v>-12.06470016032729</v>
+        <v>-12.2177456312892</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.802202866572375</v>
+        <v>-2.947430815554083</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.16099965608718</v>
+        <v>-3.334073034617185</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-13.9849688389739</v>
       </c>
       <c r="E13" t="n">
-        <v>-12.9863904018987</v>
+        <v>-13.12608888411393</v>
       </c>
       <c r="F13" t="n">
-        <v>-2.63964827725432</v>
+        <v>-2.872325892064536</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.400441302835556</v>
+        <v>-2.581801548004982</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-13.40469638744237</v>
       </c>
       <c r="E14" t="n">
-        <v>-13.47459684961509</v>
+        <v>-13.6507086549751</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.496361263998776</v>
+        <v>-2.689697040550928</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.895822459066929</v>
+        <v>-2.090324354694623</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-12.66302223835195</v>
       </c>
       <c r="E15" t="n">
-        <v>-14.31409310773992</v>
+        <v>-14.49422367674454</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.293457701008072</v>
+        <v>-2.46551651967541</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.199740328376179</v>
+        <v>-1.402455755540291</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-11.75497400908416</v>
       </c>
       <c r="E16" t="n">
-        <v>-14.93975398351963</v>
+        <v>-15.06690727411435</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.963371513381443</v>
+        <v>-2.159352242648595</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.997042103673886</v>
+        <v>-1.197542810727284</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-10.70645024372372</v>
       </c>
       <c r="E17" t="n">
-        <v>-15.98074088165063</v>
+        <v>-16.16639602841486</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.585363280445313</v>
+        <v>-1.795971918258275</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.623551313082785</v>
+        <v>-0.8318939871507154</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-9.557157379973351</v>
       </c>
       <c r="E18" t="n">
-        <v>-16.71680531049901</v>
+        <v>-17.01789479839796</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.397390744426167</v>
+        <v>-1.594134158764558</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.451639164621455</v>
+        <v>-0.6860304672763079</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-8.383076171975546</v>
       </c>
       <c r="E19" t="n">
-        <v>-17.54305724902137</v>
+        <v>-17.8600360092378</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.8980764731081431</v>
+        <v>-1.07661811488101</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.121528531960491</v>
+        <v>-0.4387151659065484</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-7.247065556553803</v>
       </c>
       <c r="E20" t="n">
-        <v>-18.30497474618199</v>
+        <v>-18.60885096799509</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.5984536872692605</v>
+        <v>-0.7895209646351635</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.305824534815717</v>
+        <v>-0.6438823390766342</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-6.229546852323243</v>
       </c>
       <c r="E21" t="n">
-        <v>-18.73574514122587</v>
+        <v>-19.14782486301753</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.1856112804063615</v>
+        <v>-0.3419030519278985</v>
       </c>
       <c r="G21" t="n">
-        <v>-1.585275278321708</v>
+        <v>-1.000691838237821</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-5.378887525725985</v>
       </c>
       <c r="E22" t="n">
-        <v>-19.31991301572607</v>
+        <v>-19.7931444354091</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2869014552672344</v>
+        <v>0.1655563048304054</v>
       </c>
       <c r="G22" t="n">
-        <v>-1.682077614286624</v>
+        <v>-1.164498013313806</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-4.732601646868941</v>
       </c>
       <c r="E23" t="n">
-        <v>-19.77859963998003</v>
+        <v>-20.21593108223931</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4693640805473672</v>
+        <v>0.3990406057736626</v>
       </c>
       <c r="G23" t="n">
-        <v>-1.68068913633642</v>
+        <v>-1.207193710282574</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-4.303931599500068</v>
       </c>
       <c r="E24" t="n">
-        <v>-19.99615066754401</v>
+        <v>-20.42526368926</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5606467277595362</v>
+        <v>0.5290246313443303</v>
       </c>
       <c r="G24" t="n">
-        <v>-2.18135766255658</v>
+        <v>-1.741024370081018</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-4.076751194161838</v>
       </c>
       <c r="E25" t="n">
-        <v>-20.56616975617136</v>
+        <v>-20.96874524861374</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8523150994259482</v>
+        <v>0.8530435614491185</v>
       </c>
       <c r="G25" t="n">
-        <v>-2.496341707971309</v>
+        <v>-2.132624042107171</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-4.030901183899229</v>
       </c>
       <c r="E26" t="n">
-        <v>-20.57100498396274</v>
+        <v>-21.0401540829119</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8938521017672576</v>
+        <v>0.922917247591067</v>
       </c>
       <c r="G26" t="n">
-        <v>-2.933213583585095</v>
+        <v>-2.64489418162252</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-4.118348920064801</v>
       </c>
       <c r="E27" t="n">
-        <v>-20.81735715097972</v>
+        <v>-21.3198834998093</v>
       </c>
       <c r="F27" t="n">
-        <v>0.805820644121587</v>
+        <v>0.8672999054730425</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.260038803631492</v>
+        <v>-3.021308598320035</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-4.305323840416419</v>
       </c>
       <c r="E28" t="n">
-        <v>-20.92918829405353</v>
+        <v>-21.3736136852767</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8505355009263911</v>
+        <v>0.8910604788462492</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.623130676616665</v>
+        <v>-3.384708478737823</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-4.544950787276157</v>
       </c>
       <c r="E29" t="n">
-        <v>-20.79777178947085</v>
+        <v>-21.27356015974528</v>
       </c>
       <c r="F29" t="n">
-        <v>0.7076053851721326</v>
+        <v>0.7603968813210802</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.917561337162883</v>
+        <v>-3.709856769428869</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-4.808417476997378</v>
       </c>
       <c r="E30" t="n">
-        <v>-20.4435290189148</v>
+        <v>-20.91523017944849</v>
       </c>
       <c r="F30" t="n">
-        <v>0.7303832681650894</v>
+        <v>0.7717149322179884</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.520815894471519</v>
+        <v>-4.371652294961944</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-5.07249702551296</v>
       </c>
       <c r="E31" t="n">
-        <v>-20.38263154938051</v>
+        <v>-20.86381738323601</v>
       </c>
       <c r="F31" t="n">
-        <v>0.7222332937179421</v>
+        <v>0.7856290457612283</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.668747464250631</v>
+        <v>-4.573509610483129</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-5.318768943323764</v>
       </c>
       <c r="E32" t="n">
-        <v>-20.24225349521078</v>
+        <v>-20.71602759465604</v>
       </c>
       <c r="F32" t="n">
-        <v>0.492083295457921</v>
+        <v>0.5556990528102183</v>
       </c>
       <c r="G32" t="n">
-        <v>-5.132415986501978</v>
+        <v>-5.087187783976148</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-5.547418358637143</v>
       </c>
       <c r="E33" t="n">
-        <v>-19.84529058265162</v>
+        <v>-20.33136053436717</v>
       </c>
       <c r="F33" t="n">
-        <v>0.3845398114063928</v>
+        <v>0.4597278480126779</v>
       </c>
       <c r="G33" t="n">
-        <v>-5.222593718162225</v>
+        <v>-5.173816096651014</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-5.752536725381396</v>
       </c>
       <c r="E34" t="n">
-        <v>-19.53242836621713</v>
+        <v>-20.03697876388962</v>
       </c>
       <c r="F34" t="n">
-        <v>0.3217551852214711</v>
+        <v>0.4141231919580952</v>
       </c>
       <c r="G34" t="n">
-        <v>-5.516198136547935</v>
+        <v>-5.477335420962827</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-5.943771794560323</v>
       </c>
       <c r="E35" t="n">
-        <v>-18.98111950686947</v>
+        <v>-19.44118972006676</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1248651006770723</v>
+        <v>0.1886324172422439</v>
       </c>
       <c r="G35" t="n">
-        <v>-5.3409174623553</v>
+        <v>-5.288213968329956</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-6.12170411426544</v>
       </c>
       <c r="E36" t="n">
-        <v>-18.5997916382707</v>
+        <v>-19.10182908641359</v>
       </c>
       <c r="F36" t="n">
-        <v>0.08461390714176152</v>
+        <v>0.1107505378522888</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.469469008913961</v>
+        <v>-5.421576297645663</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-6.293438992928667</v>
       </c>
       <c r="E37" t="n">
-        <v>-18.17890681511173</v>
+        <v>-18.62797676285847</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1339684314632679</v>
+        <v>0.1483714456931993</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.066697956196907</v>
+        <v>-5.011618404834244</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-6.461398362106141</v>
       </c>
       <c r="E38" t="n">
-        <v>-17.71462716700201</v>
+        <v>-18.21966157635433</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.08773336293072423</v>
+        <v>-0.1334406881295121</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.921914906840088</v>
+        <v>-4.799024830233314</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-6.622912553135153</v>
       </c>
       <c r="E39" t="n">
-        <v>-17.16250184350758</v>
+        <v>-17.69563337532405</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.1071329421786427</v>
+        <v>-0.1286103493450001</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.921890461805754</v>
+        <v>-4.827909082803047</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-6.781500341809196</v>
       </c>
       <c r="E40" t="n">
-        <v>-16.6962665926511</v>
+        <v>-17.18267388584047</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.177417304897412</v>
+        <v>-0.2616940052692919</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.793446473398164</v>
+        <v>-4.603107658055431</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-6.928542648707205</v>
       </c>
       <c r="E41" t="n">
-        <v>-15.97583720776311</v>
+        <v>-16.44142710971316</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.3530695436119323</v>
+        <v>-0.4768836425165534</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.904573599483141</v>
+        <v>-4.687179020138901</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-7.067145786675814</v>
       </c>
       <c r="E42" t="n">
-        <v>-15.34085788489507</v>
+        <v>-15.79790669184861</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.4554111243570629</v>
+        <v>-0.5662106869819564</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.901825977623934</v>
+        <v>-4.554750491134776</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-7.187566265941584</v>
       </c>
       <c r="E43" t="n">
-        <v>-14.85398124704647</v>
+        <v>-15.28734770473668</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.5576255909236537</v>
+        <v>-0.6507220596834482</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.519407860493847</v>
+        <v>-4.121340032382766</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-7.291033055484342</v>
       </c>
       <c r="E44" t="n">
-        <v>-14.27150007991536</v>
+        <v>-14.69697568052237</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.5996466049447877</v>
+        <v>-0.7171001059155524</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.68684656767195</v>
+        <v>-4.297857625312729</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-7.371606531007553</v>
       </c>
       <c r="E45" t="n">
-        <v>-13.74898258200696</v>
+        <v>-14.18734560471515</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.7379468311960777</v>
+        <v>-0.8458667687763584</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.780955060853197</v>
+        <v>-4.391570108937755</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-7.427255478345829</v>
       </c>
       <c r="E46" t="n">
-        <v>-12.81333422583051</v>
+        <v>-13.24137166603578</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.9060259982737467</v>
+        <v>-0.9937152254387333</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.735228179626941</v>
+        <v>-4.207503889405275</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-7.460238909081214</v>
       </c>
       <c r="E47" t="n">
-        <v>-12.46167285090018</v>
+        <v>-12.84619324098304</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.028857406798118</v>
+        <v>-1.145719337937986</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.936308143056285</v>
+        <v>-4.370097590778265</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-7.466435816922995</v>
       </c>
       <c r="E48" t="n">
-        <v>-11.69754552263571</v>
+        <v>-12.08886652127045</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.149967884905335</v>
+        <v>-1.254450850658174</v>
       </c>
       <c r="G48" t="n">
-        <v>-4.954343689388335</v>
+        <v>-4.316421184386406</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-7.457448326016906</v>
       </c>
       <c r="E49" t="n">
-        <v>-11.29270153100709</v>
+        <v>-11.71674465260209</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.251488112496824</v>
+        <v>-1.366966454693355</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.911354652007552</v>
+        <v>-4.291849035873291</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-7.43324502251577</v>
       </c>
       <c r="E50" t="n">
-        <v>-10.72788434568614</v>
+        <v>-11.13394081101776</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.496393133481194</v>
+        <v>-1.607544704600506</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.150940433520719</v>
+        <v>-4.50409549098667</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-7.410377790466026</v>
       </c>
       <c r="E51" t="n">
-        <v>-10.30429101272289</v>
+        <v>-10.72379713594539</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.457119741319267</v>
+        <v>-1.546559232942609</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.332557260612876</v>
+        <v>-4.675699632015385</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-7.393964694990072</v>
       </c>
       <c r="E52" t="n">
-        <v>-9.759127635006939</v>
+        <v>-10.22108989386173</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.575008363901187</v>
+        <v>-1.678361969067769</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.351658610441912</v>
+        <v>-4.679527724392178</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-7.398108099494151</v>
       </c>
       <c r="E53" t="n">
-        <v>-9.222314681019679</v>
+        <v>-9.638031823920324</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.530665071618268</v>
+        <v>-1.656112098816439</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.494745174415912</v>
+        <v>-4.821176920347305</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-7.432196455367428</v>
       </c>
       <c r="E54" t="n">
-        <v>-8.673132539659122</v>
+        <v>-9.147957775580769</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.626284267921391</v>
+        <v>-1.753012214918693</v>
       </c>
       <c r="G54" t="n">
-        <v>-5.429442709694529</v>
+        <v>-4.778246551048926</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-7.496723759992848</v>
       </c>
       <c r="E55" t="n">
-        <v>-7.953216500492162</v>
+        <v>-8.382901536011582</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.794788778596481</v>
+        <v>-1.915434801051342</v>
       </c>
       <c r="G55" t="n">
-        <v>-5.610854198498275</v>
+        <v>-4.944673233805577</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-7.602248673705442</v>
       </c>
       <c r="E56" t="n">
-        <v>-7.59381582769151</v>
+        <v>-8.010843224432488</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.886838999886756</v>
+        <v>-2.034364782095915</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.609881286131759</v>
+        <v>-4.969621835847444</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-7.740738174986728</v>
       </c>
       <c r="E57" t="n">
-        <v>-7.287940002069844</v>
+        <v>-7.643791255885115</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.785069432945054</v>
+        <v>-1.88921016821721</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.491141976354996</v>
+        <v>-4.898369449769025</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-7.919317444296093</v>
       </c>
       <c r="E58" t="n">
-        <v>-6.742615287127284</v>
+        <v>-7.19571377653236</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.836531119226201</v>
+        <v>-1.935000606532735</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.725985421207255</v>
+        <v>-5.108621190080703</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-8.12653438314349</v>
       </c>
       <c r="E59" t="n">
-        <v>-6.291110613960821</v>
+        <v>-6.652633115741714</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.009103283614565</v>
+        <v>-2.154585460953353</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.691454365706234</v>
+        <v>-5.14170021054225</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-8.362917523354511</v>
       </c>
       <c r="E60" t="n">
-        <v>-6.187747230780505</v>
+        <v>-6.581654514047842</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.064925964021</v>
+        <v>-2.182350130950563</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.553696819217173</v>
+        <v>-5.052358499056246</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-8.62010785092486</v>
       </c>
       <c r="E61" t="n">
-        <v>-6.061811302895643</v>
+        <v>-6.466533069352596</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.148762653774857</v>
+        <v>-2.240431532529513</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.532825648902312</v>
+        <v>-5.033765605941368</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-8.888939194179818</v>
       </c>
       <c r="E62" t="n">
-        <v>-5.81803564249753</v>
+        <v>-6.218983095653225</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.170939188923183</v>
+        <v>-2.226659200185413</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.664608829000005</v>
+        <v>-5.136503196242719</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-9.166906286176479</v>
       </c>
       <c r="E63" t="n">
-        <v>-5.511812697388312</v>
+        <v>-5.954238484802914</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.316817375818192</v>
+        <v>-2.377837070524157</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.489577494157583</v>
+        <v>-5.018775910887407</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-9.436848781645152</v>
       </c>
       <c r="E64" t="n">
-        <v>-5.362355757466722</v>
+        <v>-5.772890553088437</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.485356109541351</v>
+        <v>-2.574795601164693</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.296691506237187</v>
+        <v>-4.837198195850186</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-9.697623528541248</v>
       </c>
       <c r="E65" t="n">
-        <v>-5.182714089148799</v>
+        <v>-5.603618468335241</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.308564732226839</v>
+        <v>-2.39876690892142</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.35291508520671</v>
+        <v>-4.864997088895464</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-9.930324082033243</v>
       </c>
       <c r="E66" t="n">
-        <v>-5.191807641921261</v>
+        <v>-5.553520814969963</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.406457316723078</v>
+        <v>-2.489057087739606</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.393645401414978</v>
+        <v>-4.952436976710239</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-10.13283017459378</v>
       </c>
       <c r="E67" t="n">
-        <v>-4.990732567498783</v>
+        <v>-5.38595499361332</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.511399849121407</v>
+        <v>-2.634128588501573</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.306694414286896</v>
+        <v>-4.877566725550302</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-10.29160442333971</v>
       </c>
       <c r="E68" t="n">
-        <v>-5.086747773358126</v>
+        <v>-5.498128367167817</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.570962619781032</v>
+        <v>-2.722399607483722</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.184576800765094</v>
+        <v>-4.767823188408663</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-10.40130141451245</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.197126881392465</v>
+        <v>-5.563724172301215</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.572571103040246</v>
+        <v>-2.692346882272796</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.973973051958999</v>
+        <v>-4.545725384458451</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-10.45734101570323</v>
       </c>
       <c r="E70" t="n">
-        <v>-4.996115364059256</v>
+        <v>-5.390736442329163</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.526995781026865</v>
+        <v>-2.693706026181798</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.994883334328794</v>
+        <v>-4.637550711432847</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-10.44917016229987</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.487851674733562</v>
+        <v>-5.829578587710316</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.625553270457004</v>
+        <v>-2.795441370075431</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.826207708413361</v>
+        <v>-4.441741097406037</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-10.38262185264442</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.547795787928806</v>
+        <v>-5.914373522810089</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.589276839504495</v>
+        <v>-2.783341078079817</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.58162047287534</v>
+        <v>-4.263996363752477</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-10.25154421557808</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.776493751149354</v>
+        <v>-6.102756735406055</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.700051957095054</v>
+        <v>-2.862934109873192</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.575738997614441</v>
+        <v>-4.252893429157713</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-10.06905925180264</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.94524271216779</v>
+        <v>-6.227494856608524</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.58484739928307</v>
+        <v>-2.761027650739217</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.118563076482357</v>
+        <v>-3.81365527422034</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-9.832555439088576</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.401548390077562</v>
+        <v>-6.699464912519892</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.792644858147556</v>
+        <v>-3.002437031813743</v>
       </c>
       <c r="G75" t="n">
-        <v>-3.946328253567811</v>
+        <v>-3.631544657434625</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-9.553887410484935</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.593847697173929</v>
+        <v>-6.891089536668623</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.842815846615837</v>
+        <v>-3.043255350145616</v>
       </c>
       <c r="G76" t="n">
-        <v>-3.56304478222228</v>
+        <v>-3.292990709914499</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-9.236942857428753</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.175311950876724</v>
+        <v>-7.487387037205639</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.846912834370312</v>
+        <v>-3.056470335706888</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.230367420956185</v>
+        <v>-3.06019086993261</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-8.887786130752845</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.846069025996854</v>
+        <v>-8.122063241647936</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.932739349919004</v>
+        <v>-3.154548702464068</v>
       </c>
       <c r="G78" t="n">
-        <v>-2.938606158159302</v>
+        <v>-2.794595571887455</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-8.518964211814685</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.569720266410137</v>
+        <v>-8.900490914998135</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.921284406829822</v>
+        <v>-3.178499947105085</v>
       </c>
       <c r="G79" t="n">
-        <v>-2.535927996572719</v>
+        <v>-2.443946221378581</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-8.132856311454161</v>
       </c>
       <c r="E80" t="n">
-        <v>-9.165054632594369</v>
+        <v>-9.488066427284574</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.003062824692709</v>
+        <v>-3.258440098386011</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.189522304024327</v>
+        <v>-2.138515295381804</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-7.745497778603422</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.882834175760488</v>
+        <v>-10.24823365998684</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.961462265262129</v>
+        <v>-3.196115038846579</v>
       </c>
       <c r="G81" t="n">
-        <v>-1.835734211106894</v>
+        <v>-1.768906376243034</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-7.35669049000747</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.77843178768317</v>
+        <v>-11.13561285136624</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.104402159030121</v>
+        <v>-3.343117697320978</v>
       </c>
       <c r="G82" t="n">
-        <v>-1.768397919528874</v>
+        <v>-1.699692706028119</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-6.980093340106398</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.6946218965293</v>
+        <v>-12.00410092021188</v>
       </c>
       <c r="F83" t="n">
-        <v>-3.10895382442322</v>
+        <v>-3.393709140379814</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.495542446286351</v>
+        <v>-1.474852169225567</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-6.614505450600559</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.73541812339249</v>
+        <v>-13.0906875853906</v>
       </c>
       <c r="F84" t="n">
-        <v>-3.161887101771307</v>
+        <v>-3.407711256046658</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.234195695208546</v>
+        <v>-1.290957064933428</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-6.264271238227589</v>
       </c>
       <c r="E85" t="n">
-        <v>-14.09992038392098</v>
+        <v>-14.44082594374409</v>
       </c>
       <c r="F85" t="n">
-        <v>-3.123381283687485</v>
+        <v>-3.387402321521493</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.123865477242876</v>
+        <v>-1.140033422951764</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-5.929219665297524</v>
       </c>
       <c r="E86" t="n">
-        <v>-15.30258185013399</v>
+        <v>-15.66692530887709</v>
       </c>
       <c r="F86" t="n">
-        <v>-3.062405590043322</v>
+        <v>-3.295914336020914</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.158914767471789</v>
+        <v>-1.149038973600621</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-5.604170410038779</v>
       </c>
       <c r="E87" t="n">
-        <v>-16.74401263371339</v>
+        <v>-17.09123479040856</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.98483660709285</v>
+        <v>-3.205580156140926</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.9851301293804307</v>
+        <v>-1.000320273715935</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-5.292401453653829</v>
       </c>
       <c r="E88" t="n">
-        <v>-18.13004608048378</v>
+        <v>-18.48173190044844</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.996995567170867</v>
+        <v>-3.214395035521974</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.297845675608911</v>
+        <v>-1.324784103445613</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-4.986982778392155</v>
       </c>
       <c r="E89" t="n">
-        <v>-19.64165366863088</v>
+        <v>-19.99822360645559</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.973313217907531</v>
+        <v>-3.153165113520731</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.144071742623836</v>
+        <v>-1.252148128423857</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-4.693454762650579</v>
       </c>
       <c r="E90" t="n">
-        <v>-21.42356955744284</v>
+        <v>-21.75233082420853</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.727049053014158</v>
+        <v>-2.892937945015449</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.353521685809339</v>
+        <v>-1.458136654747585</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-4.405806528617092</v>
       </c>
       <c r="E91" t="n">
-        <v>-23.00029871705724</v>
+        <v>-23.38267283312553</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.698423917808371</v>
+        <v>-2.845974145051864</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.498671410681177</v>
+        <v>-1.579701810493425</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-4.129109743496901</v>
       </c>
       <c r="E92" t="n">
-        <v>-24.86882825152346</v>
+        <v>-25.22122297748383</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.520943190525625</v>
+        <v>-2.636020634159069</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.789523318200814</v>
+        <v>-1.851907045822649</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-3.863916791989274</v>
       </c>
       <c r="E93" t="n">
-        <v>-26.7493920763926</v>
+        <v>-27.1216263922189</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.431146801400998</v>
+        <v>-2.508686450310269</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.215067364903958</v>
+        <v>-2.30504464728266</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-3.612302687935877</v>
       </c>
       <c r="E94" t="n">
-        <v>-28.76267288167101</v>
+        <v>-29.15537013573879</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.604598987025406</v>
+        <v>-2.684426691148394</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.391311173449375</v>
+        <v>-2.465804971080558</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-3.380383470910604</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.96249863296342</v>
+        <v>-31.36756751890793</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.518904474662121</v>
+        <v>-2.546747368769202</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.727533064693983</v>
+        <v>-2.813242244077869</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-3.170416426949223</v>
       </c>
       <c r="E96" t="n">
-        <v>-33.07784234559555</v>
+        <v>-33.47969182051819</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.622458529110247</v>
+        <v>-2.676491833003391</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.036298293373996</v>
+        <v>-3.1295854334016</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-2.98744789444499</v>
       </c>
       <c r="E97" t="n">
-        <v>-35.16598606852359</v>
+        <v>-35.5324415782332</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.745407273799424</v>
+        <v>-2.762997920506584</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.362287493246151</v>
+        <v>-3.483930873101862</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-2.83756004480097</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.28515054002221</v>
+        <v>-37.69364417527699</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.882949703986342</v>
+        <v>-2.908289426577562</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.623306680863874</v>
+        <v>-3.738198342236375</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-2.720900802930254</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.64697108934642</v>
+        <v>-40.01230212747664</v>
       </c>
       <c r="F99" t="n">
-        <v>-2.843568753673342</v>
+        <v>-2.815290737955106</v>
       </c>
       <c r="G99" t="n">
-        <v>-3.868959719898882</v>
+        <v>-3.928908722100993</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-2.656059237122934</v>
       </c>
       <c r="E100" t="n">
-        <v>-41.86093340399452</v>
+        <v>-42.27555296485354</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.900941249256589</v>
+        <v>-2.831326680478587</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.292435716697321</v>
+        <v>-4.310921051661126</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-2.627965157414055</v>
       </c>
       <c r="E101" t="n">
-        <v>-43.88238129524411</v>
+        <v>-44.30158185553743</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.933135359475224</v>
+        <v>-2.833262727197885</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.60800644293608</v>
+        <v>-4.625601978650107</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-2.683580008129994</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.34663142743705</v>
+        <v>-46.78830430779415</v>
       </c>
       <c r="F102" t="n">
-        <v>-3.124774650644556</v>
+        <v>-2.94827661374206</v>
       </c>
       <c r="G102" t="n">
-        <v>-4.788420574338976</v>
+        <v>-4.793070019869411</v>
       </c>
     </row>
   </sheetData>
